--- a/results/[11_warm_summers]_#_inv_capacity.xlsx
+++ b/results/[11_warm_summers]_#_inv_capacity.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04352332914740922</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006321500000000008</v>
+        <v>0.003837439598571561</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.167421836073014</v>
+        <v>0.371816737837252</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0.2494892361375054</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4931943000000001</v>
+        <v>0.3688729365116042</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2143727</v>
+        <v>0.597153</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04558590000000001</v>
+        <v>0.0822565</v>
       </c>
       <c r="N2" t="n">
-        <v>4.746156408118115</v>
+        <v>12.82009457445574</v>
       </c>
       <c r="O2" t="n">
-        <v>3.6492014391706</v>
+        <v>3.537862477780193</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1957907388453535</v>
+        <v>0.009260248310130134</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.04893136040142861</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3857762277894874</v>
+        <v>0.221690802927771</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3689452911829624</v>
+        <v>0.4200935979461164</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9462865921503718</v>
+        <v>0.116304098642403</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1456680166666667</v>
+        <v>0.04737166666666669</v>
       </c>
       <c r="N2" t="n">
-        <v>9.278205522701754</v>
+        <v>5.019459357782987</v>
       </c>
       <c r="O2" t="n">
-        <v>4.639028851458139</v>
+        <v>2.350434537569127</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2343129210336695</v>
+        <v>0.08320532380150918</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.02828327743582346</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8422427749066921</v>
+        <v>0.1707960241217166</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.728692642427814</v>
+        <v>0.5131155002332095</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8248496828496288</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.307770344722556</v>
+        <v>0.04895450000000007</v>
       </c>
       <c r="N2" t="n">
-        <v>18.45135138570319</v>
+        <v>8.420345971561265</v>
       </c>
       <c r="O2" t="n">
-        <v>13.64817158055697</v>
+        <v>3.507480209960086</v>
       </c>
     </row>
   </sheetData>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>12.52435985341655</v>
+        <v>4.778372589157264</v>
       </c>
     </row>
   </sheetData>

--- a/results/[11_warm_summers]_#_inv_capacity.xlsx
+++ b/results/[11_warm_summers]_#_inv_capacity.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003837439598571561</v>
+        <v>0.003676399999999996</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.371816737837252</v>
+        <v>0.3723754890751533</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361375054</v>
+        <v>0.2494892361374987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3688729365116042</v>
+        <v>0.3669021</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.597153</v>
+        <v>0.5961429402307628</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0822565</v>
+        <v>0.08239116666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>12.82009457445574</v>
+        <v>12.8635987649262</v>
       </c>
       <c r="O2" t="n">
-        <v>3.537862477780193</v>
+        <v>3.475337169561451</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.009260248310130134</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.04893136040142861</v>
+        <v>0.07324717743582368</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.221690802927771</v>
+        <v>0.3629913768432933</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4200935979461164</v>
+        <v>0.57664568317287</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.116304098642403</v>
+        <v>0.2773383432630344</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04737166666666669</v>
+        <v>0.08143291666666665</v>
       </c>
       <c r="N2" t="n">
-        <v>5.019459357782987</v>
+        <v>9.162835765309527</v>
       </c>
       <c r="O2" t="n">
-        <v>2.350434537569127</v>
+        <v>3.84946491064901</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.08320532380150918</v>
+        <v>0.09755888307768322</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02828327743582346</v>
+        <v>0.0231476116393296</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1707960241217166</v>
+        <v>0.157117409245859</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5131155002332095</v>
+        <v>0.5170865166666656</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04895450000000007</v>
+        <v>0.04734183333333336</v>
       </c>
       <c r="N2" t="n">
-        <v>8.420345971561265</v>
+        <v>8.874638901356207</v>
       </c>
       <c r="O2" t="n">
-        <v>3.507480209960086</v>
+        <v>3.341908864560384</v>
       </c>
     </row>
   </sheetData>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>4.778372589157264</v>
+        <v>5.381349308255924</v>
       </c>
     </row>
   </sheetData>

--- a/results/[11_warm_summers]_#_inv_capacity.xlsx
+++ b/results/[11_warm_summers]_#_inv_capacity.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.04352332914740922</v>
+        <v>0.1774173491026328</v>
       </c>
       <c r="B2" t="n">
-        <v>0.006321500000000008</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.698886550485734</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.167421836073014</v>
+        <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.3247024241048815</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.06880566916063374</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4931943000000001</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2143727</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04558590000000001</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.746156408118115</v>
+        <v>7.862176127467878</v>
       </c>
       <c r="O2" t="n">
-        <v>3.6492014391706</v>
+        <v>3.364628064996624</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1957907388453535</v>
+        <v>0.1784518902710296</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.220795686899256</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3857762277894874</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2403690565694545</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1393700898393662</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3689452911829624</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9462865921503718</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1456680166666667</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>9.278205522701754</v>
+        <v>26.0970085682948</v>
       </c>
       <c r="O2" t="n">
-        <v>4.639028851458139</v>
+        <v>6.64631114309088</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2343129210336695</v>
+        <v>0.9125903823651778</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.605660048695331</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8422427749066921</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.03015563704987223</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1411719741471287</v>
       </c>
       <c r="I2" t="n">
-        <v>1.728692642427814</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8248496828496288</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.307770344722556</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>18.45135138570319</v>
+        <v>26.02971581004701</v>
       </c>
       <c r="O2" t="n">
-        <v>13.64817158055697</v>
+        <v>6.561723410988902</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>12.52435985341655</v>
+        <v>1.670845117402013</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[11_warm_summers]_#_inv_capacity.xlsx
+++ b/results/[11_warm_summers]_#_inv_capacity.xlsx
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.862176127467878</v>
+        <v>7.86217612746788</v>
       </c>
       <c r="O2" t="n">
-        <v>3.364628064996624</v>
+        <v>3.364628064996621</v>
       </c>
     </row>
   </sheetData>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26.0970085682948</v>
+        <v>26.09700856829472</v>
       </c>
       <c r="O2" t="n">
-        <v>6.64631114309088</v>
+        <v>6.646311143090884</v>
       </c>
     </row>
   </sheetData>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9125903823651778</v>
+        <v>0.9125903823652093</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1.605660048695331</v>
+        <v>1.605660048695328</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03015563704987223</v>
+        <v>0.03015563704984414</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26.02971581004701</v>
+        <v>26.02971581004626</v>
       </c>
       <c r="O2" t="n">
-        <v>6.561723410988902</v>
+        <v>6.561723410988895</v>
       </c>
     </row>
   </sheetData>

--- a/results/[11_warm_summers]_#_inv_capacity.xlsx
+++ b/results/[11_warm_summers]_#_inv_capacity.xlsx
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374987</v>
+        <v>0.2494892361374827</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0.08239116666666667</v>
       </c>
       <c r="N2" t="n">
-        <v>12.8635987649262</v>
+        <v>12.86359876492651</v>
       </c>
       <c r="O2" t="n">
-        <v>3.475337169561451</v>
+        <v>3.475337169561455</v>
       </c>
     </row>
   </sheetData>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3629913768432933</v>
+        <v>0.3629913768433042</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.57664568317287</v>
+        <v>0.5766456831728696</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2773383432630344</v>
+        <v>0.2773383432630345</v>
       </c>
       <c r="M2" t="n">
         <v>0.08143291666666665</v>
       </c>
       <c r="N2" t="n">
-        <v>9.162835765309527</v>
+        <v>9.162835765308854</v>
       </c>
       <c r="O2" t="n">
-        <v>3.84946491064901</v>
+        <v>3.849464910649013</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.09755888307768322</v>
+        <v>0.0975588830776843</v>
       </c>
       <c r="B2" t="n">
         <v>0.0231476116393296</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.157117409245859</v>
+        <v>0.157117409245849</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5170865166666656</v>
+        <v>0.5170865166666663</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04734183333333336</v>
+        <v>0.04734183333333325</v>
       </c>
       <c r="N2" t="n">
-        <v>8.874638901356207</v>
+        <v>8.874638901356839</v>
       </c>
       <c r="O2" t="n">
-        <v>3.341908864560384</v>
+        <v>3.341908864560399</v>
       </c>
     </row>
   </sheetData>
@@ -1131,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.381349308255924</v>
+        <v>5.381349308255915</v>
       </c>
     </row>
   </sheetData>
